--- a/tempCSLData.xlsx
+++ b/tempCSLData.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,19 +501,19 @@
         <v>58</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>446</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>52.434412144833686</v>
       </c>
       <c r="K2">
-        <v>20</v>
+        <v>14075</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -536,19 +536,19 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J3">
-        <v>55</v>
+        <v>51.111207488666679</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>10478</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -571,19 +571,19 @@
         <v>32</v>
       </c>
       <c r="G4">
+        <v>351</v>
+      </c>
+      <c r="H4">
+        <v>75</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>80</v>
-      </c>
       <c r="J4">
-        <v>55</v>
+        <v>52.362719548369299</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -606,19 +606,19 @@
         <v>64</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>46.307692173500861</v>
       </c>
       <c r="K5">
-        <v>20</v>
+        <v>13503</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -641,19 +641,19 @@
         <v>52</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>478</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>50.096332888680379</v>
       </c>
       <c r="K6">
-        <v>20</v>
+        <v>10240</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -676,19 +676,19 @@
         <v>49</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>262</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>51.843566775511221</v>
       </c>
       <c r="K7">
-        <v>20</v>
+        <v>12480</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -711,19 +711,19 @@
         <v>35</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>52.086098072724873</v>
       </c>
       <c r="K8">
-        <v>20</v>
+        <v>12042</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -746,19 +746,19 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>47.827619648312655</v>
       </c>
       <c r="K9">
-        <v>20</v>
+        <v>11726</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -781,19 +781,19 @@
         <v>52</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>315</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>46.69319526156508</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>14380</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -816,19 +816,19 @@
         <v>31</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>48.670464256927715</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -851,19 +851,19 @@
         <v>44</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>389</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I12">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="J12">
-        <v>55</v>
+        <v>44.144750665487621</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>10152</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -886,19 +886,19 @@
         <v>42</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>274</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I13">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>55</v>
+        <v>50.121741608629456</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>12215</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -921,19 +921,19 @@
         <v>30</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I14">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J14">
-        <v>55</v>
+        <v>50.597318636935057</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -956,19 +956,19 @@
         <v>36</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>267</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I15">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J15">
-        <v>55</v>
+        <v>54.943406303896403</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>10180</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -991,19 +991,19 @@
         <v>18</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>499</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="I16">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J16">
-        <v>55</v>
+        <v>43.829959108705182</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -1026,19 +1026,19 @@
         <v>-1</v>
       </c>
       <c r="G17">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I17">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J17">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K17">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -1061,19 +1061,19 @@
         <v>-1</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I18">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J18">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K18">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -1096,19 +1096,19 @@
         <v>-1</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I19">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K19">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -1131,19 +1131,19 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I20">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J20">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K20">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -1166,19 +1166,19 @@
         <v>22</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>406</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I21">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J21">
-        <v>55</v>
+        <v>43.3907084411452</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>13967</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -1201,19 +1201,19 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J22">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K22">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -1236,19 +1236,19 @@
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J23">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -1271,19 +1271,19 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>408</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I24">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J24">
-        <v>55</v>
+        <v>52.845949519714068</v>
       </c>
       <c r="K24">
-        <v>20</v>
+        <v>12614</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -1306,19 +1306,19 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I25">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J25">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -1341,19 +1341,19 @@
         <v>57</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I26">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J26">
-        <v>55</v>
+        <v>48.121541055573772</v>
       </c>
       <c r="K26">
-        <v>20</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -1376,19 +1376,19 @@
         <v>64</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>491</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I27">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J27">
-        <v>55</v>
+        <v>57.26</v>
       </c>
       <c r="K27">
-        <v>20</v>
+        <v>13308</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -1411,19 +1411,19 @@
         <v>40</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>403</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I28">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J28">
-        <v>55</v>
+        <v>52.083101525146546</v>
       </c>
       <c r="K28">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -1446,19 +1446,19 @@
         <v>34</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I29">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J29">
-        <v>55</v>
+        <v>54.13</v>
       </c>
       <c r="K29">
-        <v>20</v>
+        <v>12329</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -1481,19 +1481,19 @@
         <v>35</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>481</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="J30">
-        <v>55</v>
+        <v>53.21236603275112</v>
       </c>
       <c r="K30">
-        <v>20</v>
+        <v>10822</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -1516,19 +1516,19 @@
         <v>43</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>394</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="I31">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="J31">
-        <v>55</v>
+        <v>60.53</v>
       </c>
       <c r="K31">
-        <v>20</v>
+        <v>14340</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -1551,19 +1551,19 @@
         <v>40</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I32">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>55</v>
+        <v>47.99401729513707</v>
       </c>
       <c r="K32">
-        <v>20</v>
+        <v>12228</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -1586,19 +1586,19 @@
         <v>36</v>
       </c>
       <c r="G33">
-        <v>10</v>
+        <v>290</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I33">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J33">
-        <v>55</v>
+        <v>51.551141708846757</v>
       </c>
       <c r="K33">
-        <v>20</v>
+        <v>11971</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -1621,19 +1621,19 @@
         <v>35</v>
       </c>
       <c r="G34">
-        <v>10</v>
+        <v>462</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I34">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J34">
-        <v>55</v>
+        <v>48.042682458820067</v>
       </c>
       <c r="K34">
-        <v>20</v>
+        <v>11366</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -1656,19 +1656,19 @@
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J35">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K35">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -1691,19 +1691,19 @@
         <v>35</v>
       </c>
       <c r="G36">
-        <v>10</v>
+        <v>380</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I36">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>55</v>
+        <v>53.024162382754795</v>
       </c>
       <c r="K36">
-        <v>20</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -1726,19 +1726,19 @@
         <v>37</v>
       </c>
       <c r="G37">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="I37">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J37">
-        <v>55</v>
+        <v>50.550574625132569</v>
       </c>
       <c r="K37">
-        <v>20</v>
+        <v>11138</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -1761,19 +1761,19 @@
         <v>36</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>402</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I38">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>55</v>
+        <v>49.133227444443243</v>
       </c>
       <c r="K38">
-        <v>20</v>
+        <v>10409</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -1796,19 +1796,19 @@
         <v>32</v>
       </c>
       <c r="G39">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="J39">
-        <v>55</v>
+        <v>45.553813986888549</v>
       </c>
       <c r="K39">
-        <v>20</v>
+        <v>12894</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -1831,19 +1831,19 @@
         <v>30</v>
       </c>
       <c r="G40">
-        <v>10</v>
+        <v>432</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I40">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="J40">
-        <v>55</v>
+        <v>53.054507819001223</v>
       </c>
       <c r="K40">
-        <v>20</v>
+        <v>10427</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -1866,19 +1866,19 @@
         <v>-1</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H41">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J41">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K41">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -1901,19 +1901,19 @@
         <v>-1</v>
       </c>
       <c r="G42">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J42">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K42">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -1936,19 +1936,19 @@
         <v>37</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>389</v>
       </c>
       <c r="H43">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I43">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="J43">
-        <v>55</v>
+        <v>52.714967201793186</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -1971,19 +1971,19 @@
         <v>-1</v>
       </c>
       <c r="G44">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I44">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J44">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K44">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -2006,19 +2006,19 @@
         <v>-1</v>
       </c>
       <c r="G45">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J45">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K45">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -2041,19 +2041,19 @@
         <v>65</v>
       </c>
       <c r="G46">
-        <v>10</v>
+        <v>446</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I46">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>55</v>
+        <v>46.616775603439187</v>
       </c>
       <c r="K46">
-        <v>20</v>
+        <v>12402</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -2076,19 +2076,19 @@
         <v>-1</v>
       </c>
       <c r="G47">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I47">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J47">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K47">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -2111,19 +2111,19 @@
         <v>35</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="H48">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="I48">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J48">
-        <v>55</v>
+        <v>45.519669683296783</v>
       </c>
       <c r="K48">
-        <v>20</v>
+        <v>12625</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -2146,19 +2146,19 @@
         <v>67</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>350</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I49">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J49">
-        <v>55</v>
+        <v>54.965670026170308</v>
       </c>
       <c r="K49">
-        <v>20</v>
+        <v>14572</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -2181,19 +2181,19 @@
         <v>-1</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H50">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I50">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J50">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K50">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -2216,19 +2216,19 @@
         <v>59</v>
       </c>
       <c r="G51">
-        <v>10</v>
+        <v>258</v>
       </c>
       <c r="H51">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="I51">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="J51">
-        <v>55</v>
+        <v>49.945574685519993</v>
       </c>
       <c r="K51">
-        <v>20</v>
+        <v>11761</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -2251,19 +2251,19 @@
         <v>42</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>259</v>
       </c>
       <c r="H52">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="I52">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J52">
-        <v>55</v>
+        <v>45.360490148866425</v>
       </c>
       <c r="K52">
-        <v>20</v>
+        <v>10992</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -2286,19 +2286,19 @@
         <v>56</v>
       </c>
       <c r="G53">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I53">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J53">
-        <v>55</v>
+        <v>50.144886918725824</v>
       </c>
       <c r="K53">
-        <v>20</v>
+        <v>14193</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -2321,19 +2321,19 @@
         <v>31</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>286</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I54">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J54">
-        <v>55</v>
+        <v>44.04775921579904</v>
       </c>
       <c r="K54">
-        <v>20</v>
+        <v>10881</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -2356,19 +2356,19 @@
         <v>31</v>
       </c>
       <c r="G55">
-        <v>10</v>
+        <v>461</v>
       </c>
       <c r="H55">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="I55">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="J55">
-        <v>55</v>
+        <v>50.154666773098938</v>
       </c>
       <c r="K55">
-        <v>20</v>
+        <v>14759</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
@@ -2391,19 +2391,19 @@
         <v>35</v>
       </c>
       <c r="G56">
-        <v>10</v>
+        <v>371</v>
       </c>
       <c r="H56">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I56">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J56">
-        <v>55</v>
+        <v>48.867574326829001</v>
       </c>
       <c r="K56">
-        <v>20</v>
+        <v>13463</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
@@ -2426,19 +2426,19 @@
         <v>-1</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I57">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J57">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K57">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -2461,19 +2461,19 @@
         <v>46</v>
       </c>
       <c r="G58">
-        <v>10</v>
+        <v>381</v>
       </c>
       <c r="H58">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I58">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="J58">
-        <v>55</v>
+        <v>54.172284134417865</v>
       </c>
       <c r="K58">
-        <v>20</v>
+        <v>13789</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -2496,19 +2496,19 @@
         <v>35</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>484</v>
       </c>
       <c r="H59">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I59">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J59">
-        <v>55</v>
+        <v>54.06585038024248</v>
       </c>
       <c r="K59">
-        <v>20</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -2531,19 +2531,19 @@
         <v>31</v>
       </c>
       <c r="G60">
-        <v>10</v>
+        <v>442</v>
       </c>
       <c r="H60">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I60">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="J60">
-        <v>55</v>
+        <v>51.368400505247635</v>
       </c>
       <c r="K60">
-        <v>20</v>
+        <v>11985</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -2566,19 +2566,19 @@
         <v>33</v>
       </c>
       <c r="G61">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I61">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J61">
-        <v>55</v>
+        <v>46.593709289862375</v>
       </c>
       <c r="K61">
-        <v>20</v>
+        <v>13768</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -2601,19 +2601,19 @@
         <v>39</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="H62">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I62">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J62">
-        <v>55</v>
+        <v>43.941688783957687</v>
       </c>
       <c r="K62">
-        <v>20</v>
+        <v>13248</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -2636,19 +2636,19 @@
         <v>29</v>
       </c>
       <c r="G63">
+        <v>463</v>
+      </c>
+      <c r="H63">
+        <v>75</v>
+      </c>
+      <c r="I63">
         <v>10</v>
       </c>
-      <c r="H63">
-        <v>100</v>
-      </c>
-      <c r="I63">
-        <v>80</v>
-      </c>
       <c r="J63">
-        <v>55</v>
+        <v>48.728503768778396</v>
       </c>
       <c r="K63">
-        <v>20</v>
+        <v>11951</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -2671,19 +2671,19 @@
         <v>17</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>480</v>
       </c>
       <c r="H64">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I64">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J64">
-        <v>55</v>
+        <v>48.75514648884198</v>
       </c>
       <c r="K64">
-        <v>20</v>
+        <v>12691</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
@@ -2706,19 +2706,19 @@
         <v>-1</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H65">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I65">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J65">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K65">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -2741,19 +2741,19 @@
         <v>-1</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I66">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J66">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K66">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
@@ -2776,19 +2776,19 @@
         <v>-1</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I67">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J67">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K67">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -2811,19 +2811,19 @@
         <v>48</v>
       </c>
       <c r="G68">
-        <v>10</v>
+        <v>439</v>
       </c>
       <c r="H68">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I68">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J68">
-        <v>55</v>
+        <v>43.603621964667809</v>
       </c>
       <c r="K68">
-        <v>20</v>
+        <v>14901</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -2846,19 +2846,19 @@
         <v>-1</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H69">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I69">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J69">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K69">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -2881,19 +2881,19 @@
         <v>37</v>
       </c>
       <c r="G70">
+        <v>457</v>
+      </c>
+      <c r="H70">
+        <v>75</v>
+      </c>
+      <c r="I70">
         <v>10</v>
       </c>
-      <c r="H70">
-        <v>100</v>
-      </c>
-      <c r="I70">
-        <v>80</v>
-      </c>
       <c r="J70">
-        <v>55</v>
+        <v>42.925633444432812</v>
       </c>
       <c r="K70">
-        <v>20</v>
+        <v>12716</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -2916,19 +2916,19 @@
         <v>70</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>405</v>
       </c>
       <c r="H71">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I71">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J71">
-        <v>55</v>
+        <v>45.375805367609082</v>
       </c>
       <c r="K71">
-        <v>20</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
@@ -2951,19 +2951,19 @@
         <v>-1</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H72">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I72">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J72">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K72">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
@@ -2986,19 +2986,19 @@
         <v>48</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="H73">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I73">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J73">
-        <v>55</v>
+        <v>47.145800049954616</v>
       </c>
       <c r="K73">
-        <v>20</v>
+        <v>14983</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -3021,19 +3021,19 @@
         <v>35</v>
       </c>
       <c r="G74">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="I74">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="J74">
-        <v>55</v>
+        <v>47.89609709526227</v>
       </c>
       <c r="K74">
-        <v>20</v>
+        <v>11151</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -3056,19 +3056,19 @@
         <v>67</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>472</v>
       </c>
       <c r="H75">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="I75">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="J75">
-        <v>55</v>
+        <v>49.445338071629578</v>
       </c>
       <c r="K75">
-        <v>20</v>
+        <v>12269</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -3091,19 +3091,19 @@
         <v>57</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="H76">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I76">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="J76">
-        <v>55</v>
+        <v>42.497679457639265</v>
       </c>
       <c r="K76">
-        <v>20</v>
+        <v>13250</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
@@ -3126,19 +3126,19 @@
         <v>39</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="H77">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I77">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J77">
-        <v>55</v>
+        <v>53.724832533608556</v>
       </c>
       <c r="K77">
-        <v>20</v>
+        <v>13481</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
@@ -3161,19 +3161,19 @@
         <v>32</v>
       </c>
       <c r="G78">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="H78">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="I78">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J78">
-        <v>55</v>
+        <v>42.011655468329479</v>
       </c>
       <c r="K78">
-        <v>20</v>
+        <v>11420</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
@@ -3196,19 +3196,19 @@
         <v>-1</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H79">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I79">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J79">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K79">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
@@ -3231,19 +3231,19 @@
         <v>30</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>395</v>
       </c>
       <c r="H80">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="I80">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="J80">
-        <v>55</v>
+        <v>54.920961864613666</v>
       </c>
       <c r="K80">
-        <v>20</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
@@ -3266,19 +3266,19 @@
         <v>-1</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H81">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I81">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J81">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K81">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
@@ -3301,19 +3301,19 @@
         <v>33</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="H82">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="I82">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="J82">
-        <v>55</v>
+        <v>43.094128674461665</v>
       </c>
       <c r="K82">
-        <v>20</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
@@ -3336,19 +3336,19 @@
         <v>-1</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H83">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I83">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J83">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K83">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
@@ -3371,19 +3371,19 @@
         <v>-1</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H84">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I84">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J84">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K84">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
@@ -3406,19 +3406,19 @@
         <v>41</v>
       </c>
       <c r="G85">
-        <v>10</v>
+        <v>285</v>
       </c>
       <c r="H85">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="I85">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="J85">
-        <v>55</v>
+        <v>47.657173558008758</v>
       </c>
       <c r="K85">
-        <v>20</v>
+        <v>10535</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
@@ -3441,19 +3441,19 @@
         <v>-1</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H86">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I86">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J86">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K86">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
@@ -3476,19 +3476,19 @@
         <v>-1</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H87">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I87">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J87">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K87">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
@@ -3511,19 +3511,19 @@
         <v>29</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="H88">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I88">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J88">
-        <v>55</v>
+        <v>48.830807971874535</v>
       </c>
       <c r="K88">
-        <v>20</v>
+        <v>14883</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
@@ -3546,19 +3546,19 @@
         <v>21</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="H89">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="I89">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="J89">
-        <v>55</v>
+        <v>44.641683311072313</v>
       </c>
       <c r="K89">
-        <v>20</v>
+        <v>9647</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
@@ -3581,19 +3581,19 @@
         <v>37</v>
       </c>
       <c r="G90">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="H90">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I90">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J90">
-        <v>55</v>
+        <v>51.123965601836936</v>
       </c>
       <c r="K90">
-        <v>20</v>
+        <v>12648</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
@@ -3616,19 +3616,19 @@
         <v>-1</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H91">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I91">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J91">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K91">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
@@ -3651,19 +3651,19 @@
         <v>32</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="H92">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I92">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J92">
-        <v>55</v>
+        <v>42.301511004919575</v>
       </c>
       <c r="K92">
-        <v>20</v>
+        <v>10184</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
@@ -3686,19 +3686,19 @@
         <v>77</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="H93">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I93">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J93">
-        <v>55</v>
+        <v>52.421551715020826</v>
       </c>
       <c r="K93">
-        <v>20</v>
+        <v>9839</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
@@ -3721,19 +3721,19 @@
         <v>-1</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H94">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I94">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J94">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K94">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
@@ -3756,19 +3756,19 @@
         <v>59</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="H95">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I95">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J95">
-        <v>55</v>
+        <v>53.910808808556119</v>
       </c>
       <c r="K95">
-        <v>20</v>
+        <v>13170</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
@@ -3791,19 +3791,19 @@
         <v>38</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>469</v>
       </c>
       <c r="H96">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I96">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J96">
-        <v>55</v>
+        <v>49.233314992156096</v>
       </c>
       <c r="K96">
-        <v>20</v>
+        <v>13754</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
@@ -3826,19 +3826,19 @@
         <v>51</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="H97">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="I97">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J97">
-        <v>55</v>
+        <v>47.759908012649362</v>
       </c>
       <c r="K97">
-        <v>20</v>
+        <v>13450</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
@@ -3861,19 +3861,19 @@
         <v>40</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="H98">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I98">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="J98">
-        <v>55</v>
+        <v>50.069320773168414</v>
       </c>
       <c r="K98">
-        <v>20</v>
+        <v>9582</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
@@ -3896,19 +3896,19 @@
         <v>34</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>496</v>
       </c>
       <c r="H99">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="I99">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J99">
-        <v>55</v>
+        <v>46.077172224120325</v>
       </c>
       <c r="K99">
-        <v>20</v>
+        <v>13172</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.45">
@@ -3931,19 +3931,19 @@
         <v>32</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>472</v>
       </c>
       <c r="H100">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J100">
-        <v>55</v>
+        <v>48.310117926596895</v>
       </c>
       <c r="K100">
-        <v>20</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.45">
@@ -3966,19 +3966,19 @@
         <v>-1</v>
       </c>
       <c r="G101">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H101">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I101">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J101">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K101">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.45">
@@ -4001,19 +4001,19 @@
         <v>-1</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H102">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I102">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J102">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K102">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.45">
@@ -4036,19 +4036,19 @@
         <v>-1</v>
       </c>
       <c r="G103">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H103">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I103">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J103">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K103">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.45">
@@ -4071,19 +4071,19 @@
         <v>35</v>
       </c>
       <c r="G104">
-        <v>10</v>
+        <v>468</v>
       </c>
       <c r="H104">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I104">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J104">
-        <v>55</v>
+        <v>46.239199053809472</v>
       </c>
       <c r="K104">
-        <v>20</v>
+        <v>14279</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.45">
@@ -4106,19 +4106,19 @@
         <v>-1</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>448</v>
       </c>
       <c r="H105">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="I105">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="J105">
-        <v>55</v>
+        <v>51.974272563082152</v>
       </c>
       <c r="K105">
-        <v>20</v>
+        <v>9815</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.45">
@@ -4141,19 +4141,19 @@
         <v>-1</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>433</v>
       </c>
       <c r="H106">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="I106">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="J106">
-        <v>55</v>
+        <v>47.012030486125589</v>
       </c>
       <c r="K106">
-        <v>20</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.45">
@@ -4176,19 +4176,19 @@
         <v>-1</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>279</v>
       </c>
       <c r="H107">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="I107">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="J107">
-        <v>55</v>
+        <v>45.933361180353394</v>
       </c>
       <c r="K107">
-        <v>20</v>
+        <v>13963</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.45">
@@ -4211,19 +4211,19 @@
         <v>-1</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="H108">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="I108">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J108">
-        <v>55</v>
+        <v>46.547623229640124</v>
       </c>
       <c r="K108">
-        <v>20</v>
+        <v>10711</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.45">
@@ -4246,19 +4246,19 @@
         <v>-1</v>
       </c>
       <c r="G109">
-        <v>10</v>
+        <v>275</v>
       </c>
       <c r="H109">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="I109">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="J109">
-        <v>55</v>
+        <v>53.376784707463251</v>
       </c>
       <c r="K109">
-        <v>20</v>
+        <v>12295</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.45">
@@ -4281,19 +4281,19 @@
         <v>-1</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>502</v>
       </c>
       <c r="H110">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="I110">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="J110">
-        <v>55</v>
+        <v>43.552997936460407</v>
       </c>
       <c r="K110">
-        <v>20</v>
+        <v>13292</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.45">
@@ -4316,19 +4316,19 @@
         <v>-1</v>
       </c>
       <c r="G111">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="H111">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="I111">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="J111">
-        <v>55</v>
+        <v>45.806091449363812</v>
       </c>
       <c r="K111">
-        <v>20</v>
+        <v>14683</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.45">
@@ -4351,19 +4351,19 @@
         <v>-1</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H112">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I112">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J112">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K112">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.45">
@@ -4386,19 +4386,19 @@
         <v>-1</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H113">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I113">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J113">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K113">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.45">
@@ -4421,19 +4421,19 @@
         <v>54</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>412</v>
       </c>
       <c r="H114">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="I114">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="J114">
-        <v>55</v>
+        <v>44.505428103834085</v>
       </c>
       <c r="K114">
-        <v>20</v>
+        <v>11116</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.45">
@@ -4456,19 +4456,19 @@
         <v>58</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>485</v>
       </c>
       <c r="H115">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I115">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="J115">
-        <v>55</v>
+        <v>53.517190485349957</v>
       </c>
       <c r="K115">
-        <v>20</v>
+        <v>13565</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.45">
@@ -4491,19 +4491,19 @@
         <v>-1</v>
       </c>
       <c r="G116">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H116">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I116">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J116">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K116">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.45">
@@ -4526,19 +4526,19 @@
         <v>36</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="H117">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="I117">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J117">
-        <v>55</v>
+        <v>45.203783018951839</v>
       </c>
       <c r="K117">
-        <v>20</v>
+        <v>14595</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.45">
@@ -4561,19 +4561,19 @@
         <v>38</v>
       </c>
       <c r="G118">
-        <v>10</v>
+        <v>486</v>
       </c>
       <c r="H118">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="I118">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="J118">
-        <v>55</v>
+        <v>49.479481950828905</v>
       </c>
       <c r="K118">
-        <v>20</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.45">
@@ -4596,19 +4596,19 @@
         <v>48</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>498</v>
       </c>
       <c r="H119">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I119">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J119">
-        <v>55</v>
+        <v>52.131775379758565</v>
       </c>
       <c r="K119">
-        <v>20</v>
+        <v>10123</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.45">
@@ -4631,19 +4631,19 @@
         <v>42</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="H120">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I120">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J120">
-        <v>55</v>
+        <v>52.097738706791951</v>
       </c>
       <c r="K120">
-        <v>20</v>
+        <v>9977</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.45">
@@ -4666,19 +4666,19 @@
         <v>40</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="H121">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I121">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="J121">
-        <v>55</v>
+        <v>42.939861683424034</v>
       </c>
       <c r="K121">
-        <v>20</v>
+        <v>13419</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.45">
@@ -4701,19 +4701,19 @@
         <v>44</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>331</v>
       </c>
       <c r="H122">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I122">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J122">
-        <v>55</v>
+        <v>52.08205075420581</v>
       </c>
       <c r="K122">
-        <v>20</v>
+        <v>11294</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
@@ -4736,19 +4736,19 @@
         <v>-1</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H123">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I123">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J123">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K123">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.45">
@@ -4771,19 +4771,19 @@
         <v>26</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>514</v>
       </c>
       <c r="H124">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I124">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J124">
-        <v>55</v>
+        <v>53.921301488438331</v>
       </c>
       <c r="K124">
-        <v>20</v>
+        <v>13970</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.45">
@@ -4806,19 +4806,19 @@
         <v>-1</v>
       </c>
       <c r="G125">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H125">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I125">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J125">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K125">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.45">
@@ -4841,19 +4841,19 @@
         <v>36</v>
       </c>
       <c r="G126">
+        <v>336</v>
+      </c>
+      <c r="H126">
+        <v>75</v>
+      </c>
+      <c r="I126">
         <v>10</v>
       </c>
-      <c r="H126">
-        <v>100</v>
-      </c>
-      <c r="I126">
-        <v>80</v>
-      </c>
       <c r="J126">
-        <v>55</v>
+        <v>52.823963807103688</v>
       </c>
       <c r="K126">
-        <v>20</v>
+        <v>14895</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.45">
@@ -4876,19 +4876,19 @@
         <v>-1</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H127">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I127">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J127">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K127">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.45">
@@ -4911,19 +4911,19 @@
         <v>-1</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H128">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I128">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J128">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K128">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.45">
@@ -4946,19 +4946,19 @@
         <v>-1</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H129">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I129">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J129">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K129">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.45">
@@ -4981,19 +4981,19 @@
         <v>-1</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H130">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I130">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J130">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K130">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.45">
@@ -5016,19 +5016,19 @@
         <v>-1</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H131">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I131">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J131">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K131">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.45">
@@ -5051,19 +5051,19 @@
         <v>-1</v>
       </c>
       <c r="G132">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H132">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I132">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J132">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K132">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.45">
@@ -5086,19 +5086,19 @@
         <v>-1</v>
       </c>
       <c r="G133">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H133">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I133">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J133">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K133">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.45">
@@ -5121,19 +5121,19 @@
         <v>-1</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H134">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I134">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J134">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K134">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.45">
@@ -5156,19 +5156,19 @@
         <v>-1</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H135">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I135">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J135">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K135">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.45">
@@ -5191,19 +5191,19 @@
         <v>47</v>
       </c>
       <c r="G136">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="H136">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="I136">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="J136">
-        <v>55</v>
+        <v>53.381216520650625</v>
       </c>
       <c r="K136">
-        <v>20</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.45">
@@ -5226,19 +5226,19 @@
         <v>68</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>392</v>
       </c>
       <c r="H137">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="I137">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J137">
-        <v>55</v>
+        <v>47.904706288766</v>
       </c>
       <c r="K137">
-        <v>20</v>
+        <v>12619</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.45">
@@ -5261,19 +5261,19 @@
         <v>-1</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H138">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I138">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J138">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K138">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.45">
@@ -5296,19 +5296,19 @@
         <v>47</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="H139">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="I139">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="J139">
-        <v>55</v>
+        <v>48.853857084561</v>
       </c>
       <c r="K139">
-        <v>20</v>
+        <v>12242</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.45">
@@ -5331,19 +5331,19 @@
         <v>37</v>
       </c>
       <c r="G140">
-        <v>10</v>
+        <v>341</v>
       </c>
       <c r="H140">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="I140">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J140">
-        <v>55</v>
+        <v>42.246417663376874</v>
       </c>
       <c r="K140">
-        <v>20</v>
+        <v>12866</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.45">
@@ -5366,19 +5366,19 @@
         <v>53</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>390</v>
       </c>
       <c r="H141">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I141">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="J141">
-        <v>55</v>
+        <v>53.199439182700772</v>
       </c>
       <c r="K141">
-        <v>20</v>
+        <v>13371</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.45">
@@ -5401,19 +5401,19 @@
         <v>-1</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="H142">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="I142">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J142">
-        <v>55</v>
+        <v>46.829922619792484</v>
       </c>
       <c r="K142">
-        <v>20</v>
+        <v>14970</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.45">
@@ -5436,19 +5436,19 @@
         <v>37</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="H143">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I143">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J143">
-        <v>55</v>
+        <v>42.253230069005937</v>
       </c>
       <c r="K143">
-        <v>20</v>
+        <v>13164</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.45">
@@ -5471,19 +5471,19 @@
         <v>45</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>397</v>
       </c>
       <c r="H144">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I144">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="J144">
-        <v>55</v>
+        <v>54.049452104875712</v>
       </c>
       <c r="K144">
-        <v>20</v>
+        <v>13423</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.45">
@@ -5506,19 +5506,19 @@
         <v>-1</v>
       </c>
       <c r="G145">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="H145">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I145">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J145">
-        <v>55</v>
+        <v>53.696772462247139</v>
       </c>
       <c r="K145">
-        <v>20</v>
+        <v>11731</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.45">
@@ -5541,19 +5541,19 @@
         <v>32</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>472</v>
       </c>
       <c r="H146">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="I146">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J146">
-        <v>55</v>
+        <v>43.327095472848079</v>
       </c>
       <c r="K146">
-        <v>20</v>
+        <v>10589</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.45">
@@ -5576,19 +5576,19 @@
         <v>-1</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>288</v>
       </c>
       <c r="H147">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I147">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="J147">
-        <v>55</v>
+        <v>42.704914757298653</v>
       </c>
       <c r="K147">
-        <v>20</v>
+        <v>13065</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.45">
@@ -5611,19 +5611,19 @@
         <v>50</v>
       </c>
       <c r="G148">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="H148">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="I148">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J148">
-        <v>55</v>
+        <v>46.191891156815203</v>
       </c>
       <c r="K148">
-        <v>20</v>
+        <v>13176</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.45">
@@ -5646,19 +5646,19 @@
         <v>-1</v>
       </c>
       <c r="G149">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H149">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I149">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J149">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K149">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.45">
@@ -5681,19 +5681,19 @@
         <v>-1</v>
       </c>
       <c r="G150">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H150">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I150">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J150">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K150">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.45">
@@ -5716,19 +5716,19 @@
         <v>-1</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H151">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I151">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J151">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K151">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.45">
@@ -5751,19 +5751,19 @@
         <v>-1</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H152">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I152">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J152">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K152">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.45">
@@ -5786,19 +5786,19 @@
         <v>-1</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H153">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I153">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J153">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K153">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.45">
@@ -5821,19 +5821,19 @@
         <v>-1</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H154">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I154">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J154">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K154">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.45">
@@ -5856,19 +5856,19 @@
         <v>-1</v>
       </c>
       <c r="G155">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H155">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="I155">
-        <v>80</v>
+        <v>-1</v>
       </c>
       <c r="J155">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="K155">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/tempCSLData.xlsx
+++ b/tempCSLData.xlsx
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J156" sqref="J156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5871,6 +5871,36 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="E156">
+        <f t="shared" ref="E156:J156" si="0">MAX(E2:E155)</f>
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="0"/>
+        <v>60.53</v>
+      </c>
+      <c r="K156">
+        <f>MAX(K2:K155)</f>
+        <v>14983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
